--- a/CLAVES_ETRANSPORTE/OFICINAS NOMENCLATURAS.xlsx
+++ b/CLAVES_ETRANSPORTE/OFICINAS NOMENCLATURAS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://corpgeb-my.sharepoint.com/personal/emosornio_geb_mx/Documents/Escritorio/PAGINA ETRANSPORTE ACTUALIZA/CLAVES_ETRANSPORTE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://corpgeb-my.sharepoint.com/personal/emosornio_geb_mx/Documents/Escritorio/SERVICE-DESK--ORIGINAL/CLAVES_ETRANSPORTE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="11_AD4D2F04E46CFB4ACB3E20702513F954683EDF2E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6634501-5550-480A-81EF-20FC11393699}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="11_AD4D2F04E46CFB4ACB3E20702513F954683EDF2E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A3511E2-68D1-4E1C-99DF-A86D4E08E497}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="825" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3501" uniqueCount="2415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3501" uniqueCount="2416">
   <si>
     <t>CLAVE</t>
   </si>
@@ -7273,6 +7273,9 @@
   </si>
   <si>
     <t>SAN JUAN DEL RIO (DGO)</t>
+  </si>
+  <si>
+    <t>GEB</t>
   </si>
 </sst>
 </file>
@@ -7635,8 +7638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A918" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C938" activeCellId="1" sqref="C941 C938"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20773,7 +20776,7 @@
         <v>1895</v>
       </c>
       <c r="C938" s="1" t="s">
-        <v>1894</v>
+        <v>2415</v>
       </c>
       <c r="D938" s="2" t="s">
         <v>550</v>
